--- a/samples/extended_data_sheet.xlsx
+++ b/samples/extended_data_sheet.xlsx
@@ -1,310 +1,293 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="full_data_sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="full_data_sheet"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
-    <t xml:space="preserve">PatientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PatientName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PatientBirthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StudyDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccessionNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StudyInstanceUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudonym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SeriesInstanceUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple, Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062115936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705182951.2689481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSOHMP4N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070513455668000000609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400005494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400005512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.2000000001951524609.20200705191841.1919177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coconut, Coco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062094302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705170836.2689469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2XJQ2AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517123499949116589.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517153210092017920.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517193322662018722.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapefruit, Graham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062094311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705172608.2689471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRS8CZ3S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517301037863820746.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517335687336722071.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517382448546523977.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mango, Mona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062115911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705174649.2689475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070513455668000000451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400004223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400004252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papaya, Pamela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062115904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705173311.2689472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABU5QZL9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070513455668000000412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400003908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400003941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.2000000001951524609.20200705190701.1919169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062094291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705163958.2689467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070516513796467312554.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070516551348090513757.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070516582618533014546.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070516585256532215651.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.2000000001951524609.20200705190556.1919168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pineapple, Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062094318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705174419.2689474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30MX3T5N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517495680997424916.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517534091301326116.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070517574133619226890.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starfruit, Stella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062094339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705184633.2689482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXP32EM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070518503343460537537.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070518530868249738852.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watermelon, Willi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062115838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705161257.2689463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWB48FQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070513455668000000117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400001234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.1.4.66002.30000020070514400054400001271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'0062115819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113845.11.1000000001951524609.20200705150256.2689458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070515210199060100732.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070515244568288101946.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070515355354452704482.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070515355354452904483.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.2020070515374099719606998.0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.12.2.1107.5.2.18.41369.202007051540352848707190.0.0.0</t>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>PatientBirthDate</t>
+  </si>
+  <si>
+    <t>StudyDate</t>
+  </si>
+  <si>
+    <t>Modality</t>
+  </si>
+  <si>
+    <t>AccessionNumber</t>
+  </si>
+  <si>
+    <t>StudyInstanceUID</t>
+  </si>
+  <si>
+    <t>Pseudonym</t>
+  </si>
+  <si>
+    <t>SeriesInstanceUID</t>
+  </si>
+  <si>
+    <t>Apple, Annie</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062115936</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705182951.2689481</t>
+  </si>
+  <si>
+    <t>WSOHMP4N</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070513455668000000609</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400005494</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400005512</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.2000000001951524609.20200705191841.1919177</t>
+  </si>
+  <si>
+    <t>Coconut, Coco</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062094302</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705170836.2689469</t>
+  </si>
+  <si>
+    <t>C2XJQ2AR</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517123499949116589.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517153210092017920.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517193322662018722.0.0.0</t>
+  </si>
+  <si>
+    <t>Grapefruit, Graham</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062094311</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705172608.2689471</t>
+  </si>
+  <si>
+    <t>KRS8CZ3S</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517301037863820746.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517335687336722071.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517382448546523977.0.0.0</t>
+  </si>
+  <si>
+    <t>Mango, Mona</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062115911</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705174649.2689475</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070513455668000000451</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400004223</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400004252</t>
+  </si>
+  <si>
+    <t>Papaya, Pamela</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062115904</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705173311.2689472</t>
+  </si>
+  <si>
+    <t>ABU5QZL9</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070513455668000000412</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400003908</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400003941</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.2000000001951524609.20200705190701.1919169</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062094291</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705163958.2689467</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070516513796467312554.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070516551348090513757.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070516582618533014546.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070516585256532215651.0.0.0</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.2000000001951524609.20200705190556.1919168</t>
+  </si>
+  <si>
+    <t>Pineapple, Peter</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062094318</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705174419.2689474</t>
+  </si>
+  <si>
+    <t>30MX3T5N</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517495680997424916.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517534091301326116.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070517574133619226890.0.0.0</t>
+  </si>
+  <si>
+    <t>Starfruit, Stella</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062094339</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705184633.2689482</t>
+  </si>
+  <si>
+    <t>XXP32EM7</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070518503343460537537.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070518530868249738852.0.0.0</t>
+  </si>
+  <si>
+    <t>Watermelon, Willi</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062115838</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705161257.2689463</t>
+  </si>
+  <si>
+    <t>RWB48FQL</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070513455668000000117</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400001234</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.1.4.66002.30000020070514400054400001271</t>
+  </si>
+  <si>
+    <t>&amp;apos;0062115819</t>
+  </si>
+  <si>
+    <t>1.2.840.113845.11.1000000001951524609.20200705150256.2689458</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070515210199060100732.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070515244568288101946.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070515355354452704482.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070515355354452904483.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.2020070515374099719606998.0.0.0</t>
+  </si>
+  <si>
+    <t>1.3.12.2.1107.5.2.18.41369.202007051540352848707190.0.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,8 +298,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -324,98 +314,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="63.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="68.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.8"/>
+    <col min="1" max="1" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="68.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +685,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -440,22 +694,23 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="J1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>16554</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43620</v>
+      <c r="C2" s="6">
+        <v>25569.04185826389</v>
+      </c>
+      <c r="D2" s="6">
+        <v>25569.042171527777</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -469,22 +724,23 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="J2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>16554</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>43620</v>
+      <c r="C3" s="6">
+        <v>25569.04185826389</v>
+      </c>
+      <c r="D3" s="6">
+        <v>25569.042171527777</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -498,23 +754,23 @@
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="J3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>16554</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>43620</v>
+      <c r="C4" s="6">
+        <v>25569.04185826389</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25569.042171527777</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -528,22 +784,23 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="J4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>16554</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>43620</v>
+      <c r="C5" s="6">
+        <v>25569.04185826389</v>
+      </c>
+      <c r="D5" s="6">
+        <v>25569.042171527777</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -557,22 +814,23 @@
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="J5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>28103</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>43617</v>
+      <c r="C6" s="6">
+        <v>25569.04199193287</v>
+      </c>
+      <c r="D6" s="6">
+        <v>25569.042171493056</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -586,22 +844,23 @@
       <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="J6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>1002</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>28103</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>43617</v>
+      <c r="C7" s="6">
+        <v>25569.04199193287</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25569.042171493056</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -615,22 +874,23 @@
       <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="J7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>1002</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>28103</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>43617</v>
+      <c r="C8" s="6">
+        <v>25569.04199193287</v>
+      </c>
+      <c r="D8" s="6">
+        <v>25569.042171493056</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -644,22 +904,23 @@
       <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="J8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
         <v>1003</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>20843</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>43863</v>
+      <c r="C9" s="6">
+        <v>25569.04190790509</v>
+      </c>
+      <c r="D9" s="6">
+        <v>25569.042174340277</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -673,22 +934,23 @@
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="J9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
         <v>1003</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>20843</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>43863</v>
+      <c r="C10" s="6">
+        <v>25569.04190790509</v>
+      </c>
+      <c r="D10" s="6">
+        <v>25569.042174340277</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -702,22 +964,23 @@
       <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="J10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1">
         <v>1003</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>20843</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>43863</v>
+      <c r="C11" s="6">
+        <v>25569.04190790509</v>
+      </c>
+      <c r="D11" s="6">
+        <v>25569.042174340277</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -731,22 +994,23 @@
       <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="J11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1">
         <v>1004</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>22984</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>42365</v>
+      <c r="C12" s="6">
+        <v>25569.041932685184</v>
+      </c>
+      <c r="D12" s="6">
+        <v>25569.042157002314</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -760,22 +1024,23 @@
       <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="J12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1">
         <v>1004</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>22984</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>42365</v>
+      <c r="C13" s="6">
+        <v>25569.041932685184</v>
+      </c>
+      <c r="D13" s="6">
+        <v>25569.042157002314</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -789,22 +1054,23 @@
       <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="J13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1">
         <v>1004</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>22984</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>42365</v>
+      <c r="C14" s="6">
+        <v>25569.041932685184</v>
+      </c>
+      <c r="D14" s="6">
+        <v>25569.042157002314</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -818,22 +1084,23 @@
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="J14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
         <v>1005</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>43332</v>
+      <c r="C15" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D15" s="6">
+        <v>25569.042168194443</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -847,22 +1114,23 @@
       <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="J15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
         <v>1005</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>43332</v>
+      <c r="C16" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25569.042168194443</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -876,22 +1144,23 @@
       <c r="H16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="J16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
         <v>1005</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>43332</v>
+      <c r="C17" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25569.042168194443</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -905,22 +1174,23 @@
       <c r="H17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="J17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
         <v>1005</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>43332</v>
+      <c r="C18" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D18" s="6">
+        <v>25569.042168194443</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -934,22 +1204,23 @@
       <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="J18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1">
         <v>1005</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>43331</v>
+      <c r="C19" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D19" s="6">
+        <v>25569.04216818287</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -963,22 +1234,23 @@
       <c r="H19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="J19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1">
         <v>1005</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>43331</v>
+      <c r="C20" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D20" s="6">
+        <v>25569.04216818287</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -992,22 +1264,23 @@
       <c r="H20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="J20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1">
         <v>1005</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>43331</v>
+      <c r="C21" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D21" s="6">
+        <v>25569.04216818287</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -1021,22 +1294,23 @@
       <c r="H21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="J21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1">
         <v>1005</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>43331</v>
+      <c r="C22" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D22" s="6">
+        <v>25569.04216818287</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -1050,22 +1324,23 @@
       <c r="H22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="J22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1">
         <v>1005</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>28001</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>43331</v>
+      <c r="C23" s="6">
+        <v>25569.041990752314</v>
+      </c>
+      <c r="D23" s="6">
+        <v>25569.04216818287</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
@@ -1079,22 +1354,23 @@
       <c r="H23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="J23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1">
         <v>1006</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>22222</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>43980</v>
+      <c r="C24" s="6">
+        <v>25569.04192386574</v>
+      </c>
+      <c r="D24" s="6">
+        <v>25569.042175694445</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -1108,22 +1384,23 @@
       <c r="H24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="J24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1">
         <v>1006</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <v>22222</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>43980</v>
+      <c r="C25" s="6">
+        <v>25569.04192386574</v>
+      </c>
+      <c r="D25" s="6">
+        <v>25569.042175694445</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1137,22 +1414,23 @@
       <c r="H25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="J25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1">
         <v>1006</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>22222</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>43980</v>
+      <c r="C26" s="6">
+        <v>25569.04192386574</v>
+      </c>
+      <c r="D26" s="6">
+        <v>25569.042175694445</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -1166,22 +1444,23 @@
       <c r="H26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="J26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1">
         <v>1007</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <v>26457</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>41228</v>
+      <c r="C27" s="6">
+        <v>25569.041972881943</v>
+      </c>
+      <c r="D27" s="6">
+        <v>25569.04214384259</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -1195,22 +1474,23 @@
       <c r="H27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="J27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
         <v>1007</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>26457</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>41228</v>
+      <c r="C28" s="6">
+        <v>25569.041972881943</v>
+      </c>
+      <c r="D28" s="6">
+        <v>25569.04214384259</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -1224,22 +1504,23 @@
       <c r="H28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="J28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1">
         <v>1008</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>41279</v>
+      <c r="C29" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D29" s="6">
+        <v>25569.04214443287</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -1253,22 +1534,23 @@
       <c r="H29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="J29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1">
         <v>1008</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>41279</v>
+      <c r="C30" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D30" s="6">
+        <v>25569.04214443287</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -1282,22 +1564,23 @@
       <c r="H30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="J30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1">
         <v>1008</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>41279</v>
+      <c r="C31" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D31" s="6">
+        <v>25569.04214443287</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -1311,22 +1594,23 @@
       <c r="H31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="J31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1">
         <v>1008</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>44017</v>
+      <c r="C32" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D32" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -1340,22 +1624,23 @@
       <c r="H32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="J32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1">
         <v>1008</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>44017</v>
+      <c r="C33" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D33" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -1369,22 +1654,23 @@
       <c r="H33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="J33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1">
         <v>1008</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>44017</v>
+      <c r="C34" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D34" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -1398,22 +1684,23 @@
       <c r="H34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="J34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1">
         <v>1008</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>44017</v>
+      <c r="C35" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D35" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -1427,22 +1714,23 @@
       <c r="H35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="J35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1">
         <v>1008</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>44017</v>
+      <c r="C36" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D36" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -1456,22 +1744,23 @@
       <c r="H36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="J36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1">
         <v>1008</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <v>19449</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>44017</v>
+      <c r="C37" s="6">
+        <v>25569.041891770834</v>
+      </c>
+      <c r="D37" s="6">
+        <v>25569.042176122686</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -1485,17 +1774,12 @@
       <c r="H37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="J37" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>